--- a/Pre Research Works/match.xlsx
+++ b/Pre Research Works/match.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/match.xlsx
+++ b/Pre Research Works/match.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/match.xlsx
+++ b/Pre Research Works/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>apply</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>solve</t>
+          <t>demonstrate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>use</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/match.xlsx
+++ b/Pre Research Works/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>demonstrate</t>
+          <t>analyze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>demonstrate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>use</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], []</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], []</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>using</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
         </is>
       </c>
     </row>
